--- a/src/main/java/com/follo/excelfile/Follo_WebApp_Datas.xlsx
+++ b/src/main/java/com/follo/excelfile/Follo_WebApp_Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -13,21 +13,19 @@
     <sheet name="SearchDfow" sheetId="7" r:id="rId4"/>
     <sheet name="EditDFOW" sheetId="6" r:id="rId5"/>
     <sheet name="DeleteDFOW" sheetId="5" r:id="rId6"/>
+    <sheet name="AddCompany" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>ajithtester007@yopmail.com</t>
-  </si>
-  <si>
-    <t>demo001@yopmail.com</t>
+    <t>folloclientdemo2203@yopmail.com</t>
   </si>
   <si>
     <t>Phone Code</t>
@@ -39,7 +37,7 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>9806142700</t>
+    <t>9158442702</t>
   </si>
   <si>
     <t>First Name</t>
@@ -122,15 +120,15 @@
     <t>Select from anyone of the following plans</t>
   </si>
   <si>
+    <t>Enterprise Plan</t>
+  </si>
+  <si>
+    <t>Trial Plan</t>
+  </si>
+  <si>
     <t>Project Plan</t>
   </si>
   <si>
-    <t>Trial Plan</t>
-  </si>
-  <si>
-    <t>Enterprise Plan</t>
-  </si>
-  <si>
     <t>Card Details</t>
   </si>
   <si>
@@ -197,49 +195,73 @@
     <t>A</t>
   </si>
   <si>
-    <t>TesterQA</t>
+    <t>AutomationTester</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>DeveloperDV</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>BusinessBA</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>ServiceQA</t>
+    <t>AppDeveloper</t>
+  </si>
+  <si>
+    <t>New Spec</t>
+  </si>
+  <si>
+    <t>New DFOW</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>QATester</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>QADeveloper</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>QABusiness</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>QAService</t>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Notes </t>
+  </si>
+  <si>
+    <t>optisol</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>saidapet</t>
+  </si>
+  <si>
+    <t>tamilnadu</t>
+  </si>
+  <si>
+    <t>628001</t>
+  </si>
+  <si>
+    <t>https://test.folloit.com/companies</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>optisol1</t>
+  </si>
+  <si>
+    <t>chennai1</t>
+  </si>
+  <si>
+    <t>saidapet1</t>
+  </si>
+  <si>
+    <t>tamilnadu1</t>
+  </si>
+  <si>
+    <t>India1</t>
+  </si>
+  <si>
+    <t>Opti</t>
   </si>
 </sst>
 </file>
@@ -247,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -269,13 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -284,6 +299,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
@@ -298,6 +328,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -305,7 +342,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,113 +449,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -448,19 +470,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,163 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,17 +705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -709,15 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,6 +731,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,18 +791,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,135 +823,151 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -943,36 +981,35 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -987,11 +1024,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1319,245 +1356,243 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.4545454545455" style="10" customWidth="1"/>
-    <col min="2" max="2" width="49.4545454545455" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.1909090909091" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="27.4545454545455" style="15" customWidth="1"/>
+    <col min="2" max="2" width="49.4545454545455" style="16" customWidth="1"/>
+    <col min="3" max="3" width="29.1909090909091" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.5" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15.5" spans="1:5">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" ht="15.5" spans="1:2">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="3" ht="15.5" spans="1:2">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="15.5" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+    </row>
+    <row r="4" ht="15.5" spans="1:2">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="15.5" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="5" ht="15.5" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="15.5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+    </row>
+    <row r="6" ht="15.5" spans="1:2">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="15.5" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="7" ht="43.5" spans="1:2">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="43.5" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+    </row>
+    <row r="8" ht="15.5" spans="1:2">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" ht="15.5" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+    </row>
+    <row r="9" ht="15.5" spans="1:2">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" ht="15.5" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16" t="s">
+    </row>
+    <row r="10" ht="15.5" spans="1:2">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" ht="15.5" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16" t="s">
+    </row>
+    <row r="11" ht="15.5" spans="1:2">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" ht="15.5" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16" t="s">
+    </row>
+    <row r="12" ht="15.5" spans="1:2">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" ht="15.5" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16" t="s">
+    </row>
+    <row r="13" ht="15.5" spans="1:2">
+      <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" ht="15.5" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="14" ht="15.5" spans="1:2">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" ht="15.5" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16" t="s">
+    </row>
+    <row r="15" ht="29" spans="1:2">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" ht="29" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="19" t="s">
+      <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="16" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="18" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="20" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="18" t="s">
+      <c r="B23" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="D23" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
+      <c r="B24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="16" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="16" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="16" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="B27" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="16" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="16" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1565,9 +1600,8 @@
     <mergeCell ref="C22:D22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="ajithtester007@yopmail.com" tooltip="mailto:ajithtester007@yopmail.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="folloclientdemo2203@yopmail.com" tooltip="mailto:folloclientdemo2203@yopmail.com"/>
     <hyperlink ref="B15" r:id="rId2" display="https://www.edureka.co/community/1579/verifying-whether-element-present-visible-selenium-webdriver"/>
-    <hyperlink ref="E1" r:id="rId3" display="demo001@yopmail.com" tooltip="mailto:demo001@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1580,7 +1614,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1590,19 +1624,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:2">
+      <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1618,59 +1652,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.54545454545455" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="5.54545454545455" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.3636363636364" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6363636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" style="1" customWidth="1"/>
-    <col min="4" max="16370" width="5.54545454545455" style="1" customWidth="1"/>
-    <col min="16371" max="16384" width="5.54545454545455" style="1"/>
+    <col min="1" max="1" width="19.3636363636364" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.0909090909091" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.1818181818182" style="7" customWidth="1"/>
+    <col min="4" max="16370" width="5.54545454545455" style="7" customWidth="1"/>
+    <col min="16371" max="16384" width="5.54545454545455" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1682,41 +1700,36 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="1" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1727,13 +1740,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="20.3636363636364" customWidth="1"/>
@@ -1742,73 +1755,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
+      <c r="C1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1820,45 +1791,159 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.8181818181818" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5454545454545" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.72727272727273" style="2"/>
+    <col min="1" max="1" width="15.8181818181818" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.5454545454545" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.72727272727273" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>70</v>
+    </row>
+    <row r="2" s="7" customFormat="1" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="12.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="15.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="22.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="11.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="20.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="16.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="https://test.folloit.com/companies"/>
+    <hyperlink ref="I3" r:id="rId1" display="https://test.folloit.com/companies"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>